--- a/biology/Zoologie/Bucorvidae/Bucorvidae.xlsx
+++ b/biology/Zoologie/Bucorvidae/Bucorvidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bucorvus
 La famille des Bucorvidae est celle des Bucorves ou Calaos terrestres, oiseaux de taille grande à très grande (80 à 120 cm), au long bec courbe surmonté d'un casque creux, avec des caroncules noires ou rouges. Ils possèdent des ailes larges et arrondies, et une longue queue.
@@ -513,7 +525,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bucorvidae constituaient initialement la sous-famille des Bucorvinae, dans la famille des Bucerotidae (ordre des Coraciiformes).
 La classification de Sibley &amp; Monroe, qui crée l'ordre des Bucérotiformes, divise maintenant l'ancienne famille des Bucerotidae en deux : elle en sépare les Bucorvidae et limite les Bucerotidae à l'ancienne sous-famille des Bucerotinae.
@@ -549,7 +563,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Bucorvus abyssinicus (Boddaert, 1783) — Bucorve d'Abyssinie
